--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="26028" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -200,17 +213,26 @@
   </si>
   <si>
     <t>Attr_Desc_DEF</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Attr_Power</t>
+  </si>
+  <si>
+    <t>Attr_Desc_Power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -234,70 +256,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,6 +313,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -358,6 +344,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -372,7 +373,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,8 +627,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,26 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,8 +690,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,94 +711,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,52 +837,22 @@
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -854,52 +876,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1200,18 +1222,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="5" width="18.2166666666667" customWidth="1"/>
+    <col min="4" max="5" width="18.212962962963" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="24.775" customWidth="1"/>
-    <col min="9" max="9" width="14.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="14.8796296296296" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1221,7 +1243,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="3:10">
+    <row r="6" spans="3:10">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
@@ -1315,7 +1337,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="3:10">
+    <row r="7" spans="3:10">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -1335,7 +1357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="3:10">
+    <row r="8" spans="3:10">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="3:10">
+    <row r="9" spans="3:10">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="3:10">
+    <row r="10" spans="3:10">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -1397,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="3:10">
+    <row r="11" spans="3:10">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="3:10">
+    <row r="12" spans="3:10">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
@@ -1439,7 +1461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="3:10">
+    <row r="13" spans="3:10">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
@@ -1461,7 +1483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="3:10">
+    <row r="14" spans="3:10">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="3:10">
+    <row r="15" spans="3:10">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="3:10">
+    <row r="16" spans="3:10">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="3:10">
+    <row r="17" spans="3:10">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
@@ -1549,6 +1571,20 @@
       </c>
       <c r="J17" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="3">
+        <v>1012</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -222,19 +227,24 @@
   </si>
   <si>
     <t>Attr_Desc_Power</t>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIDamage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,160 +257,41 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,194 +304,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -608,256 +313,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,63 +336,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -978,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,34 +638,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C2:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="18.212962962963" customWidth="1"/>
+    <col min="4" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="24.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="14.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
@@ -1337,7 +759,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -1357,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -1377,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -1397,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -1419,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
@@ -1441,7 +863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
@@ -1461,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
@@ -1483,7 +905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
@@ -1505,7 +927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
@@ -1529,7 +951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
@@ -1551,7 +973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
@@ -1573,23 +995,57 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>1012</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" t="s">
         <v>62</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="19" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>1013</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>1014</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -220,6 +215,9 @@
     <t>Attr_Desc_DEF</t>
   </si>
   <si>
+    <t>能量</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
@@ -229,22 +227,41 @@
     <t>Attr_Desc_Power</t>
   </si>
   <si>
-    <t>能量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>暴击率</t>
   </si>
   <si>
     <t>CRI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击效果</t>
   </si>
   <si>
     <t>CRIDamage</t>
+  </si>
+  <si>
+    <t>物抗</t>
+  </si>
+  <si>
+    <t>NorDef</t>
+  </si>
+  <si>
+    <t>法抗</t>
+  </si>
+  <si>
+    <t>MagDef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,41 +274,167 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +447,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,12 +642,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -340,18 +911,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +1050,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,19 +1253,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -659,13 +1274,13 @@
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:5">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" ht="14.25" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" ht="14.25" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -717,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" ht="14.25" spans="3:10">
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -743,7 +1358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="6" ht="14.25" spans="3:10">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
@@ -759,7 +1374,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" ht="14.25" spans="3:10">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -779,7 +1394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="8" ht="14.25" spans="3:10">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -799,7 +1414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="9" ht="14.25" spans="3:10">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -819,7 +1434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" ht="14.25" spans="3:10">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -841,7 +1456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" ht="14.25" spans="3:10">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
@@ -863,7 +1478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" ht="14.25" spans="3:10">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
@@ -883,7 +1498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="13" ht="14.25" spans="3:10">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
@@ -905,7 +1520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" ht="14.25" spans="3:10">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
@@ -927,7 +1542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.25" spans="3:10">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
@@ -951,7 +1566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" ht="14.25" spans="3:10">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
@@ -973,7 +1588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" ht="14.25" spans="3:10">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
@@ -995,57 +1610,91 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" ht="14.25" spans="3:10">
       <c r="C18" s="3">
         <v>1012</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="3:10">
       <c r="C19" s="3">
         <v>1013</v>
       </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="14.25" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="3:10">
       <c r="C20" s="3">
         <v>1014</v>
       </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="3:9">
+      <c r="C21" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="3:9">
+      <c r="C22" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>